--- a/biology/Médecine/Trichomonas/Trichomonas.xlsx
+++ b/biology/Médecine/Trichomonas/Trichomonas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichomonas est un genre d'excavata anaérobies de la famille des Trichomonadidae, dont il est le genre type, qui parasitent les animaux vertébrés. Ce genre est découvert par le bactériologiste et médecin français Alfred Donné en 1836, remarquant ces parasites dans le pus d'une patiente souffrant de vaginite, une inflammation du vagin. Le préfixe tricho provient du mot grec ancien θρίξ signifiant « poil », qui décrit les flagelles de Trichomonas. Le suffixe -monas provient du grec μονάς, « une seule unité », et décrit sa similarité avec les organismes monocellulaires du genre Monas.
 </t>
@@ -511,18 +523,20 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Trichomonas brixi : vit dans la cavité buccale des chiens et des chats[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Trichomonas brixi : vit dans la cavité buccale des chiens et des chats.
 Trichomonas canistomae Hegner &amp; Ratcliffe
 Trichomonas equibuccalis
-Trichomonas gallinae : vit dans le tube digestif supérieur d'oiseaux, principalement columbiformes[2].
-Trichomonas gypactinii : vit dans le tube digestif supérieur des oiseaux de proie charognards, tels que les vautours[3].
-Trichomonas stableri : vit dans le tube digestif supérieur des pigeons[4].
-Trichomonas tenax (O.F.Müller) Dobell : vit dans la cavité buccale des humains[5].
-Trichomonas vaginalis Donné  (espèce type) : vit dans le tractus urogénital des humains[6],[7].
+Trichomonas gallinae : vit dans le tube digestif supérieur d'oiseaux, principalement columbiformes.
+Trichomonas gypactinii : vit dans le tube digestif supérieur des oiseaux de proie charognards, tels que les vautours.
+Trichomonas stableri : vit dans le tube digestif supérieur des pigeons.
+Trichomonas tenax (O.F.Müller) Dobell : vit dans la cavité buccale des humains.
+Trichomonas vaginalis Donné  (espèce type) : vit dans le tractus urogénital des humains,.
 Trichomonas vulgaris
-Selon AlgaeBase                                           (19 novembre 2021)[8] :
+Selon AlgaeBase                                           (19 novembre 2021) :
 Trichomonas acosta Moskowitz
 Trichomonas agilis Nurse
 Trichomonas alexeieffii Grassé
@@ -533,7 +547,7 @@
 Trichomonas aulacodi Hollande &amp; Enjumet
 Trichomonas barbouri Kirby
 Trichomonas batrachorumerty
-Trichomonas brixi : habite la cavité orale des chiens et des chats[1].
+Trichomonas brixi : habite la cavité orale des chiens et des chats.
 Trichomonas canistomae Hegner &amp; Ratcliffe
 Trichomonas carassii (Mitrophanow) Crookshank
 Trichomonas cartagoensis Kirby
@@ -552,10 +566,10 @@
 Trichomonas felistomae Hegner &amp; Ratcliffe
 Trichomonas flagelliphora Faust
 Trichomonas frugivori Todd
-Trichomonas gallinae : habite le système digestif supérieur des pigeons et des colombes au départ, puis d'autres oiseaux[9].
+Trichomonas gallinae : habite le système digestif supérieur des pigeons et des colombes au départ, puis d'autres oiseaux.
 Trichomonas gallinarum Martin &amp; Robertson
 Trichomonas guttula Kirby &amp; Honigberg
-Trichomonas gypactinii : habite le système digestif supérieur des oiseaux nécrophages, par exemple les vautours[10].
+Trichomonas gypactinii : habite le système digestif supérieur des oiseaux nécrophages, par exemple les vautours.
 Trichomonas hirsuta E. de Fromentel
 Trichomonas hominis Kofoid
 Trichomonas hystrixae H.N.Ray &amp; Sapre
@@ -585,7 +599,7 @@
 Trichomonas sanguisugae Alexeieff
 Trichomonas sigalasii Lavier
 Trichomonas singhii Todd
-Trichomonas stableri : habite le système digestif supérieur des pigeons[11].
+Trichomonas stableri : habite le système digestif supérieur des pigeons.
 Trichomonas tatusi da Fonseca
 Trichomonas tenax (O.F.Müller) Dobell : habite la cavité orale des humains.
 Trichomonas termitidis Dogiel
@@ -624,7 +638,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A. Donné, « Animalcules observés dans les matières purulentes et le produit des sécrétions des organes génitaux de l'homme et de la femme », Comptes Rendus Hebdomadaires des Séances de l'Académie des Sciences, vol. 3,‎ 1836, p. 385-386 (lire en ligne [PDF], consulté le 19 novembre 2021)</t>
         </is>
